--- a/biology/Botanique/Malouetia/Malouetia.xlsx
+++ b/biology/Botanique/Malouetia/Malouetia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Malouetia est un genre de plantes vivaces tropicales ou subtropicales de la famille des Apocynaceae, originaires d'Amérique du Sud et d'Afrique.
 Certaines espèces contiennent des alcaloïdes très toxiques.
@@ -513,9 +525,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre comprend notamment[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre comprend notamment :
 Malouetia amazonica M.E.Endress
 Malouetia amplexicaulis Spruce ex Müll.Arg.
 Malouetia aquatica Marcgr.
@@ -577,10 +591,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Malouetia tamaquarina, Malouetia flavescens et Malouetia schomburgkii sont utilisés comme additifs dans certaines recettes de la boisson hallucinogène Ayahuasca.
-Malouetia tamaquarina est aussi utilisé comme poison de pêche en Amazonie du Pérou à la Colombie[3].
+Malouetia tamaquarina est aussi utilisé comme poison de pêche en Amazonie du Pérou à la Colombie.
 </t>
         </is>
       </c>
@@ -609,9 +625,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Flora Online (WFO)       (01 janvier 2022)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Flora Online (WFO)       (01 janvier 2022) :
 Malouetia amazonica M.E.Endress
 Malouetia amplexicaulis Spruce ex Müll.Arg.
 Malouetia aquatica Markgr.
@@ -645,7 +663,7 @@
 Malouetia sessilis (Vell.) Müll.Arg.
 Malouetia tamaquarina (Aubl.) A.DC.
 Malouetia virescens Spruce ex Müll.Arg.
-Selon World Checklist of Selected Plant Families (WCSP)  (26 mai 2013)[5] :
+Selon World Checklist of Selected Plant Families (WCSP)  (26 mai 2013) :
 Malouetia amazonica M.E.Endress (2004)
 Malouetia amplexicaulis Spruce ex Müll.Arg. (1860)
 Malouetia aquatica Markgr. (1980)
@@ -681,10 +699,10 @@
 variété Malouetia tamaquarina var. peruviana (Woodson) ined..
 variété Malouetia tamaquarina var. tamaquarina
 Malouetia virescens Spruce ex Müll.Arg. (1860)
-Selon NCBI  (26 mai 2013)[6] :
+Selon NCBI  (26 mai 2013) :
 Malouetia bequaertiana
 Malouetia tamaquarina
-Selon Tropicos                                           (26 mai 2013)[7] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (26 mai 2013) (Attention liste brute contenant possiblement des synonymes) :
 Malouetia africana K. Schum.
 Malouetia albiflora Miq.
 Malouetia amazonica M.E. Endress
